--- a/03 Construct/SQL Script/含有公式GanXian Products Template.xlsx
+++ b/03 Construct/SQL Script/含有公式GanXian Products Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>pic4</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,38 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>￥179</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>￥197</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>￥196</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>￥248</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>￥488</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>￥188</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>￥230</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>￥458</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20两</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,14 +145,6 @@
   </si>
   <si>
     <t>米鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>￥1888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>￥1588</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -711,9 +671,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1:P1048576"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -731,46 +691,46 @@
   <sheetData>
     <row r="1" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="27" x14ac:dyDescent="0.15">
@@ -778,43 +738,43 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" t="s">
+      <c r="M2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="O2" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="P2" t="str">
         <f>O2 &amp;"('" &amp; A2 &amp; "','" &amp; B2 &amp; "','" &amp; C2 &amp; "','" &amp; D2 &amp;"','" &amp; E2 &amp; "','" &amp; F2 &amp; "','" &amp;G2&amp; "','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"','"&amp;K2&amp;"','"&amp;L2&amp;"')"</f>
@@ -829,11 +789,11 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
+      <c r="C3">
+        <v>197</v>
+      </c>
+      <c r="D3">
+        <v>179</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -854,12 +814,12 @@
         <v>1</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="P3" t="str">
         <f t="shared" ref="P3:P7" si="0">O3 &amp;"('" &amp; A3 &amp; "','" &amp; B3 &amp; "','" &amp; C3 &amp; "','" &amp; D3 &amp;"','" &amp; E3 &amp; "','" &amp; F3 &amp; "','" &amp;G3&amp; "','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"','"&amp;K3&amp;"','"&amp;L3&amp;"')"</f>
         <v xml:space="preserve">
-=insert  INTO products(productName,specs,originalPrice,discountedPrice,pic1,pic2,pic3,pic4,origin,nw,storageCondition,remark) values('小眼带鱼','5两','￥197','￥179','/img/product01.jpg','','','','舟山','2000克','5度以下','东海本地带鱼，每年入冬后小眼带鱼又肥又鲜，清蒸出油，入口即化，鲜美无比。带鱼的麟含有多种营养成分，千万不要刮掉哦。唯一的问题就是小眼带鱼因为肉质细嫩，出水后很容易破肚，这个我们也没法避免，所以介意的朋友请慎拍。往往大家也会把破肚作为衡量是否为正宗小眼带鱼的标准之一。
+=insert  INTO products(productName,specs,originalPrice,discountedPrice,pic1,pic2,pic3,pic4,origin,nw,storageCondition,remark) values('小眼带鱼','5两','197','179','/img/product01.jpg','','','','舟山','2000克','5度以下','东海本地带鱼，每年入冬后小眼带鱼又肥又鲜，清蒸出油，入口即化，鲜美无比。带鱼的麟含有多种营养成分，千万不要刮掉哦。唯一的问题就是小眼带鱼因为肉质细嫩，出水后很容易破肚，这个我们也没法避免，所以介意的朋友请慎拍。往往大家也会把破肚作为衡量是否为正宗小眼带鱼的标准之一。
 带鱼吃口很凶，所以它肚子里小鱼小虾很多，再加上长度不利于真空包装，所以我都是事先称重拍照，再进行剪嘴，清理内脏，切段真空包装，介意的朋友请提前说明。
 渔山岛海钓带鱼的最佳时节是每年的789月份，包船夜钓，包船费用4500-5000左右，需要的可事先联系客服咨询。
 【本店所售带鱼的常规规格为5-7两/条，需要其他规格的请联系客服】')</v>
@@ -872,11 +832,11 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
+      <c r="C4">
+        <v>196</v>
+      </c>
+      <c r="D4">
+        <v>188</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -897,12 +857,12 @@
         <v>1</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">
-=insert  INTO products(productName,specs,originalPrice,discountedPrice,pic1,pic2,pic3,pic4,origin,nw,storageCondition,remark) values('方头鱼','5两','￥196','￥188','/img/product02.jpg','','','','舟山','1800克','5度以下','方头鱼也是深海鱼类，色泽鲜红，头方方的，它跟大黄鱼一样，属于鲈科，肉质与鲜美程度非常接近，适合多种做法。
+=insert  INTO products(productName,specs,originalPrice,discountedPrice,pic1,pic2,pic3,pic4,origin,nw,storageCondition,remark) values('方头鱼','5两','196','188','/img/product02.jpg','','','','舟山','1800克','5度以下','方头鱼也是深海鱼类，色泽鲜红，头方方的，它跟大黄鱼一样，属于鲈科，肉质与鲜美程度非常接近，适合多种做法。
 不过方头鱼又好看又好吃，价格也平民，但是小朋友忌食，尤其是体型越大的方头鱼，体内汞含量极有可能超标，建议食用一斤以内的哦。同样可能汞含量超标的还有鲨鱼、箭鱼、旗鱼、枪鱼、罗非鱼、方头鱼以及鲶鱼！
 【本店所售方头鱼的常规规格为5-7两/条，需要其他规格的请联系客服】
 ')</v>
@@ -915,11 +875,11 @@
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
+      <c r="C5">
+        <v>248</v>
+      </c>
+      <c r="D5">
+        <v>230</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -940,12 +900,12 @@
         <v>0</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">
-=insert  INTO products(productName,specs,originalPrice,discountedPrice,pic1,pic2,pic3,pic4,origin,nw,storageCondition,remark) values('海鲈鱼','6两','￥248','￥230','/img/product03.jpg','','','','舟山','1800克','5度以下','海钓常见鱼类，雪菜烧汤或者葱油都不错，价格也实惠，一般在渔山岛矶钓为主，路亚效果也不错，吃口很凶。如果是渔山岛海钓的鲈鱼建议刺身尝试一下，口感非常棒，肉质Q弹，鲜美无比！
+=insert  INTO products(productName,specs,originalPrice,discountedPrice,pic1,pic2,pic3,pic4,origin,nw,storageCondition,remark) values('海鲈鱼','6两','248','230','/img/product03.jpg','','','','舟山','1800克','5度以下','海钓常见鱼类，雪菜烧汤或者葱油都不错，价格也实惠，一般在渔山岛矶钓为主，路亚效果也不错，吃口很凶。如果是渔山岛海钓的鲈鱼建议刺身尝试一下，口感非常棒，肉质Q弹，鲜美无比！
 【本店所售海鲈鱼的常规规格为1-2斤/条，需要其他规格的请联系客服】
 ')</v>
       </c>
@@ -957,11 +917,11 @@
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
+      <c r="C6">
+        <v>488</v>
+      </c>
+      <c r="D6">
+        <v>458</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
@@ -982,54 +942,54 @@
         <v>1</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">
-=insert  INTO products(productName,specs,originalPrice,discountedPrice,pic1,pic2,pic3,pic4,origin,nw,storageCondition,remark) values('虎头鱼','9两','￥488','￥458','/img/product04.jpg','','','','舟山','1800克','8度以下','  我们叫虎头鱼，长相比较奇特，个头也不大，但是营养绝对在石浦海鱼类数一数二了，煲出来的鱼汤浓白，通常作为给小孩补身体食用。
+=insert  INTO products(productName,specs,originalPrice,discountedPrice,pic1,pic2,pic3,pic4,origin,nw,storageCondition,remark) values('虎头鱼','9两','488','458','/img/product04.jpg','','','','舟山','1800克','8度以下','  我们叫虎头鱼，长相比较奇特，个头也不大，但是营养绝对在石浦海鱼类数一数二了，煲出来的鱼汤浓白，通常作为给小孩补身体食用。
     抛竿串钩在渔山岛海钓的话收获颇丰，注意背上的刺，有点毒，戳到可能会肿几天，所以钓这种鱼尽量带上手套！
 ')</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>1888</v>
+      </c>
+      <c r="D7">
+        <v>1588</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">
-=insert  INTO products(productName,specs,originalPrice,discountedPrice,pic1,pic2,pic3,pic4,origin,nw,storageCondition,remark) values('米鱼','20两','￥1888','￥1588','/img/product05.jpg','','','','舟山','2800克','5度以下','越大越贵，五斤以上的米鱼就是不是卖鱼了，是在卖鱼鳔，鱼鳔制成鱼胶后是一味昂贵的药材，价值不菲。1斤左右的小米鱼肉质鲜美，价格实惠，多种烹饪均适合，还可以做鱼丸，鱼面。做松鼠鱼是一个不错的烹饪方法')</v>
+=insert  INTO products(productName,specs,originalPrice,discountedPrice,pic1,pic2,pic3,pic4,origin,nw,storageCondition,remark) values('米鱼','20两','1888','1588','/img/product05.jpg','','','','舟山','2800克','5度以下','越大越贵，五斤以上的米鱼就是不是卖鱼了，是在卖鱼鳔，鱼鳔制成鱼胶后是一味昂贵的药材，价值不菲。1斤左右的小米鱼肉质鲜美，价格实惠，多种烹饪均适合，还可以做鱼丸，鱼面。做松鼠鱼是一个不错的烹饪方法')</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1011,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1073,34 +1033,34 @@
     <col min="1" max="1" width="255.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="409.5" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="409.5" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
